--- a/Mapping_Hospitals.xlsx
+++ b/Mapping_Hospitals.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Price_Transparency_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\PT- Andrews folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC67872A-F821-473C-928C-8332B730584D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ABBF7E-EB39-4D18-ADF6-E86B95C0E025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-11175" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{7F2D1BD1-7C34-428B-ADFF-8E7BF537B217}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Location" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>Hospital</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Mayo Clinic Arizona</t>
   </si>
   <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
     <t>Cleveland Clinic</t>
   </si>
   <si>
@@ -196,60 +193,6 @@
     <t>17(tie)</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -311,6 +254,15 @@
   </si>
   <si>
     <t>1211 Medical Center Drive</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
+  </si>
+  <si>
+    <t>13400 E. Shea Blvd</t>
+  </si>
+  <si>
+    <t>AHA ID</t>
   </si>
 </sst>
 </file>
@@ -663,432 +615,502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F616155-2A5B-4714-96A0-28B4315AE1BF}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="55.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.08984375" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
       <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6610451</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>55905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6860019</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>85259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6410670</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B5" s="1">
+        <v>6931755</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>90095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>55905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>44195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" s="1">
+        <v>6320180</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
-        <v>90095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="D6" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
         <v>21287</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6140430</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6930444</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="F7">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>90048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6210024</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>10065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6212925</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>10016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6930043</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G11">
+        <v>94143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6430545</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>60611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6440110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>48109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6932330</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>94305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6231900</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>19104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="F8">
-        <v>90048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B16" s="1">
+        <v>6140215</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6741960</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17">
+        <v>77030</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6630930</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>63110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6213140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>10065</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>10016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>94143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="G19">
+        <v>10029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6430985</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>60611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13">
-        <v>48109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14">
-        <v>94305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15">
-        <v>19104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G20">
+        <v>60612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="F16">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17">
-        <v>77030</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18">
-        <v>63110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19">
-        <v>10029</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B21" s="1">
+        <v>6521060</v>
+      </c>
+      <c r="C21" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20">
-        <v>60612</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
         <v>49</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21">
         <v>37232</v>
       </c>
     </row>
